--- a/策划案/GGJ配置表/新闻效果一览表_ggj.xlsx
+++ b/策划案/GGJ配置表/新闻效果一览表_ggj.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>新闻类型</t>
   </si>
@@ -173,7 +173,19 @@
     <t>风雪之城再现往日荣光</t>
   </si>
   <si>
+    <t>雪山弗仑兹累计增加2k人口时触发</t>
+  </si>
+  <si>
     <t>无</t>
+  </si>
+  <si>
+    <t>日渐凋敝的弗仑兹重新迎来了内陆前来观光的大批游客。</t>
+  </si>
+  <si>
+    <t>蓝色明珠的秩序之日</t>
+  </si>
+  <si>
+    <t>海岛奥兹拉上的4个格子都是教条牌时触发</t>
   </si>
 </sst>
 </file>
@@ -804,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1359,7 +1368,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1408,7 +1417,7 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1427,7 +1436,7 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1488,7 +1497,7 @@
       <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1579,145 +1588,153 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/策划案/GGJ配置表/新闻效果一览表_ggj.xlsx
+++ b/策划案/GGJ配置表/新闻效果一览表_ggj.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24390" windowHeight="10815"/>
+    <workbookView windowWidth="25395" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="新闻效果一览表_ggj" sheetId="1" r:id="rId1"/>
+    <sheet name="瞎JB新闻" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>新闻类型</t>
   </si>
@@ -50,6 +51,81 @@
     <t>备注</t>
   </si>
   <si>
+    <t>开始CG</t>
+  </si>
+  <si>
+    <t>双星即将再度归位</t>
+  </si>
+  <si>
+    <t>游戏开始CG用</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>时隔一千年，双星相拥的神圣时刻将再度来临。一千年前的战争让巴伯大陆陷入了分裂，那是一段属于所有人的痛苦回忆。而如今，我们有了帝国强大的力量，一定可以抵挡负罪者的冲击。</t>
+  </si>
+  <si>
+    <t>地底冰盖有破碎的迹象</t>
+  </si>
+  <si>
+    <t>艾伦达的神圣祭坛之下封印着永不融化的冰盖，但是最近有迹象表明，冰盖似乎正在逐渐破碎，具体的信息遗迹守护局并未透露，但我们相信在教皇的引领下我们能够化解任何危机。</t>
+  </si>
+  <si>
+    <t>佐拉达浆果或再度减产</t>
+  </si>
+  <si>
+    <t>在近十年的时间里，佐拉达已经逐渐失去了巴伯粮仓的称号，田野正在失去活力，农民们无可奈何，很多人离开了乡野去其他城市寻求出路。究竟神迹何时才能再现，让我们的土地再度丰饶？</t>
+  </si>
+  <si>
+    <t>瓦尔海捕鲸节即将开始</t>
+  </si>
+  <si>
+    <t>十年一度的瓦尔海捕鲸节将在下个月开始，雷巴卡正在紧锣密鼓的筹备节日庆典，来自世界各地的捕鲸船已经整齐停泊在海港，等待着那声悠长的号角吹响活动的序章。</t>
+  </si>
+  <si>
+    <t>卡梅尔车队全国巡演启动</t>
+  </si>
+  <si>
+    <t>来自草原城市希拉卡的传统民族舞团卡梅尔舞团即将开始新一轮的全国巡演，本次巡回路线甚至包括北方的雪原。让我们共同期待他们的第一站会选择哪个城市吧！</t>
+  </si>
+  <si>
+    <t>XXX教通过宗教法案</t>
+  </si>
+  <si>
+    <t>日前一个新的宗教派别“XXX”正式通过艾伦达宗法审核处的批准，成为了巴伯大陆上的第666个宗教，这个教派是否会成为引领巴伯人的精神支柱，亦或是如果他的664个前辈一样销声匿迹，让我们拭目以待。</t>
+  </si>
+  <si>
+    <t>XXX为玩家输入的名字</t>
+  </si>
+  <si>
+    <t>苏哈的银瞳现身狼湾</t>
+  </si>
+  <si>
+    <t>近日，有消息称，曾经屠杀过上千人的邪恶秘法师“苏哈的银瞳”在艾伦达南部的狼湾现身。暂时不清楚消息的真伪，帝国警卫队和十三圣杖已经前往调查</t>
+  </si>
+  <si>
+    <t>山火正在落山基肆虐</t>
+  </si>
+  <si>
+    <t>这场持续了近一个月的山火依然没有停止的迹象，落山基山脉附近的天空已经如地狱般赤红，黑云重重浓烟蔽日。</t>
+  </si>
+  <si>
+    <t>奥兹拉发生8级地震</t>
+  </si>
+  <si>
+    <t>今日凌晨，奥兹拉西南近海发生了8级地震，城市震感明显，所幸没有人员伤亡。灵报局并没有提前预警，相关人员已经被控制，地震原因正在调查中。</t>
+  </si>
+  <si>
+    <t>阿梅亚发生小规模暴乱</t>
+  </si>
+  <si>
+    <t>阿梅亚绿戏区发生了一场暴乱，但很快便被警卫队镇压下去，带头闹事的是一个铁匠，暴乱原因疑似对新的征税政策不满。</t>
+  </si>
+  <si>
+    <t>XXX为教条生效的城市</t>
+  </si>
+  <si>
     <t>正面新闻</t>
   </si>
   <si>
@@ -77,6 +153,9 @@
     <t>请所有市民近日不要前往较高的区域，并且避免直接观察天空。</t>
   </si>
   <si>
+    <t>XXX为目的地的城市</t>
+  </si>
+  <si>
     <t>教皇现身布道现场</t>
   </si>
   <si>
@@ -89,9 +168,6 @@
     <t>巴伯大陆最神圣的教皇亲自前往布道会场进行传教，赞美XXX教。</t>
   </si>
   <si>
-    <t>XXX为玩家输入的名字</t>
-  </si>
-  <si>
     <t>负面新闻</t>
   </si>
   <si>
@@ -170,15 +246,63 @@
     <t>或许是一场巧合，就在近日，有三个城市的新生儿出生率都大幅上涨。</t>
   </si>
   <si>
+    <t>暴风雪席卷弗仑兹</t>
+  </si>
+  <si>
+    <t>单局游戏进行超过20min触发</t>
+  </si>
+  <si>
+    <t>弗仑兹每秒减少0.1%市民，无法成为始发地和目的地</t>
+  </si>
+  <si>
+    <t>暴风雪席卷弗仑兹城，所有飞空港停运。</t>
+  </si>
+  <si>
+    <t>通用新闻</t>
+  </si>
+  <si>
+    <t>XXX的航空港临时关闭</t>
+  </si>
+  <si>
+    <t>【航空管制】在XXX生成时触发</t>
+  </si>
+  <si>
+    <t>XXX临时封城，暂时停止了与其他城市的航空线路。</t>
+  </si>
+  <si>
+    <t>帝国警卫队行动播报</t>
+  </si>
+  <si>
+    <t>【警卫队的围剿】生效时触发</t>
+  </si>
+  <si>
+    <t>代表赤红之钢意志的警卫队正为人民的安全展开行动。</t>
+  </si>
+  <si>
+    <t>赤红的意志保卫人民</t>
+  </si>
+  <si>
+    <t>使用【女帝的武装舰】时触发</t>
+  </si>
+  <si>
+    <t>女帝将乘坐双日号前往视察XXX，所到之处人民夹道欢迎。</t>
+  </si>
+  <si>
+    <t>暴风雪开始肆虐</t>
+  </si>
+  <si>
+    <t>单局游戏进行超过10min触发</t>
+  </si>
+  <si>
+    <t>弗仑兹北部开始下起暴雪，温度骤降，暴雪有南移的倾向。</t>
+  </si>
+  <si>
     <t>风雪之城再现往日荣光</t>
   </si>
   <si>
     <t>雪山弗仑兹累计增加2k人口时触发</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>日渐凋敝的弗仑兹重新迎来了内陆前来观光的大批游客。</t>
   </si>
   <si>
@@ -186,6 +310,48 @@
   </si>
   <si>
     <t>海岛奥兹拉上的4个格子都是教条牌时触发</t>
+  </si>
+  <si>
+    <t>奥兹拉重新恢复平稳，森林不再躁动。</t>
+  </si>
+  <si>
+    <t>新闻标题</t>
+  </si>
+  <si>
+    <t>国产游戏的未来</t>
+  </si>
+  <si>
+    <t>世界上竟有如此巧合，能同时有三个文武双全又貌若潘安的人组成队伍，进行游戏开发！这无疑是中国游戏的幸运，是世界游戏的幸运！</t>
+  </si>
+  <si>
+    <t>如何追求爱情·上</t>
+  </si>
+  <si>
+    <t>“在真爱面前，性别都是细枝末节。”凯恩老师苦口婆心对野猪老师说，这是他几十年人生经验的汇总，包含了无数悲欢离合。</t>
+  </si>
+  <si>
+    <t>如何追求爱情·下</t>
+  </si>
+  <si>
+    <t>“真男人就要敢于开口。”凯恩老师苦再次口婆心对野猪老师说，相信在凯恩老师的开导下，野猪老师一定会勇敢地追求饿霸老师的！</t>
+  </si>
+  <si>
+    <t>急速开发</t>
+  </si>
+  <si>
+    <t>如何能够在短短48小时开发完一款完成度极高的作品呢？野猪老师向我们展示了他的绝活：把红牛、尖叫、脉动、美式倒入万里木兰中，一饮而尽。野猪老师享年17岁。</t>
+  </si>
+  <si>
+    <t>压力之下才有艺术</t>
+  </si>
+  <si>
+    <t>“作为一名优秀的艺术家，我们应该时刻铭记，缺乏动力是无法做出让自己满意，让观众满意的作品的。我们不能有丝毫的懈怠，也不能沉迷于短时的快乐。饿霸老师语重心长的说，“快去干活，野猪，你怎么啥都没弄完？”</t>
+  </si>
+  <si>
+    <t>程序员的圣经</t>
+  </si>
+  <si>
+    <t>做不完了……做不完了……做不完了……做不完了……做不完了……</t>
   </si>
 </sst>
 </file>
@@ -545,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -563,6 +729,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -692,7 +895,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,34 +907,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,21 +1019,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1365,10 +1592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1377,373 +1604,630 @@
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="47.125" customWidth="1"/>
     <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="6" max="6" width="64.125" customWidth="1"/>
+    <col min="6" max="6" width="60.25" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="40.5" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:7">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:7">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="8" ht="40.5" spans="1:7">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="27" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="27" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="27" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="27" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" ht="27" spans="1:7">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10"/>
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10"/>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="6">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A21"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" ht="43" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" ht="44" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" ht="49" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" ht="63" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>